--- a/tablaresumen.xlsx
+++ b/tablaresumen.xlsx
@@ -9,50 +9,6 @@
     <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t xml:space="preserve">vars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trimmed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kurtosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">se</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,85 +339,8 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>598</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="A1" t="n">
         <v>27570.6987123746</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12945.1277857889</v>
-      </c>
-      <c r="E2" t="n">
-        <v>24925.3</v>
-      </c>
-      <c r="F2" t="n">
-        <v>26496.3627083333</v>
-      </c>
-      <c r="G2" t="n">
-        <v>12873.11928</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5014.21</v>
-      </c>
-      <c r="I2" t="n">
-        <v>63130.1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>58115.89</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.6539487435469</v>
-      </c>
-      <c r="L2" t="n">
-        <v>-0.356901312004308</v>
-      </c>
-      <c r="M2" t="n">
-        <v>529.365641365398</v>
       </c>
     </row>
   </sheetData>
